--- a/metrics/transfer_time/cleaned_data/Oracle_01.nan.xlsx
+++ b/metrics/transfer_time/cleaned_data/Oracle_01.nan.xlsx
@@ -5468,20 +5468,36 @@
       <c r="A144" s="2" t="n">
         <v>45186.76597222222</v>
       </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
+      <c r="B144" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1159</v>
+      </c>
       <c r="D144" t="n">
         <v>24</v>
       </c>
-      <c r="E144" t="inlineStr"/>
+      <c r="E144" t="n">
+        <v>37.67</v>
+      </c>
       <c r="F144" t="n">
         <v>98.81</v>
       </c>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="G144" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H144" t="n">
+        <v>690539264</v>
+      </c>
+      <c r="I144" t="n">
+        <v>877337</v>
+      </c>
+      <c r="J144" t="n">
+        <v>42260.84</v>
+      </c>
+      <c r="K144" t="n">
+        <v>-6925.22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
